--- a/console/Networking/agExcel/components/detailInfo.xlsx
+++ b/console/Networking/agExcel/components/detailInfo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/agExcel/components/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004EA5E3-D62B-6F44-A859-2E4DAF261AF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="18560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -637,63 +643,66 @@
     <t>Confirm&amp;nbsp;</t>
   </si>
   <si>
+    <t>Modify Description</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Availability Zone</t>
+  </si>
+  <si>
+    <t>Instance Template</t>
+  </si>
+  <si>
+    <t>Instances</t>
+  </si>
+  <si>
+    <t>Auto Scaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Enabled' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Not Enabled' </t>
+  </si>
+  <si>
+    <t>Creation Time</t>
+  </si>
+  <si>
+    <t>Modify instance template</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Name only supports Chinese, numbers, uppercase and lowercase letters, English underline “_” and line-through “-”</t>
+  </si>
+  <si>
+    <t>Description length cannot exceed 256 characters</t>
+  </si>
+  <si>
+    <t>Modify name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Modify Description</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Availability Zone</t>
-  </si>
-  <si>
-    <t>Instance Template</t>
-  </si>
-  <si>
-    <t>Instances</t>
-  </si>
-  <si>
-    <t>Auto Scaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Enabled' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Not Enabled' </t>
-  </si>
-  <si>
-    <t>Creation Time</t>
-  </si>
-  <si>
-    <t>Modify instance template</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Name cannot be null</t>
-  </si>
-  <si>
-    <t>The name length cannot exceed 32 characters</t>
-  </si>
-  <si>
-    <t>Name only supports Chinese, numbers, uppercase and lowercase letters, English underline “_” and line-through “-”</t>
-  </si>
-  <si>
-    <t>Description length cannot exceed 256 characters</t>
-  </si>
-  <si>
-    <t>Modify name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name cannot be blank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The length of name cannot exceed 32 characters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -736,9 +745,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1077,252 +1089,253 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="19.625" customWidth="1"/>
-    <col min="2" max="2" width="34.875" customWidth="1"/>
-    <col min="3" max="3" width="36.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="19">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="19">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="19">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="19">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="19">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="19">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="19">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="19">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="19">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1330,10 +1343,10 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1341,29 +1354,29 @@
         <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="76">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="38">
       <c r="A25" t="s">
         <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>72</v>
+      <c r="C25" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
